--- a/src/Fashion Recommendation Table.xlsx
+++ b/src/Fashion Recommendation Table.xlsx
@@ -6,6 +6,8 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="351">
   <si>
     <t>Input Dress</t>
   </si>
@@ -337,13 +339,742 @@
   </si>
   <si>
     <t>Silver</t>
+  </si>
+  <si>
+    <t>Brand 1</t>
+  </si>
+  <si>
+    <t>Brand 2</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Taupe</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Burgundy</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Mauve</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Mustard</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Blush</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Dusty Rose</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Fuchsia</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Champagne</t>
+  </si>
+  <si>
+    <t>Lilac</t>
+  </si>
+  <si>
+    <t>Pewter</t>
+  </si>
+  <si>
+    <t>Orchid</t>
+  </si>
+  <si>
+    <t>Sky Blue</t>
+  </si>
+  <si>
+    <t>Slate</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Turquoise</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Dusty Pink</t>
+  </si>
+  <si>
+    <t>Terracotta</t>
+  </si>
+  <si>
+    <t>Burnt Orange</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Burnt orange</t>
+  </si>
+  <si>
+    <t>Navy blue</t>
+  </si>
+  <si>
+    <t>Blush pink</t>
+  </si>
+  <si>
+    <t>Olive green</t>
+  </si>
+  <si>
+    <t>Mustard yellow</t>
+  </si>
+  <si>
+    <t>Light blue</t>
+  </si>
+  <si>
+    <t>Sage green</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Forest green</t>
+  </si>
+  <si>
+    <t>Cranberry red</t>
+  </si>
+  <si>
+    <t>Sky blue</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Charcoal gray</t>
+  </si>
+  <si>
+    <t>Rose gold</t>
+  </si>
+  <si>
+    <t>Dusty rose</t>
+  </si>
+  <si>
+    <t>Denim blue</t>
+  </si>
+  <si>
+    <t>Cobalt blue</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Abercrombie &amp; Fitch</t>
+  </si>
+  <si>
+    <t>Oxford blue</t>
+  </si>
+  <si>
+    <t>Brooks Brothers</t>
+  </si>
+  <si>
+    <t>Lululemon</t>
+  </si>
+  <si>
+    <t>Caviar</t>
+  </si>
+  <si>
+    <t>Eileen Fisher</t>
+  </si>
+  <si>
+    <t>Marigold</t>
+  </si>
+  <si>
+    <t>Royal blue</t>
+  </si>
+  <si>
+    <t>J.Crew</t>
+  </si>
+  <si>
+    <t>British khaki</t>
+  </si>
+  <si>
+    <t>Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Toffee</t>
+  </si>
+  <si>
+    <t>Madewell</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>AllSaints</t>
+  </si>
+  <si>
+    <t>Ballet pink</t>
+  </si>
+  <si>
+    <t>Reformation</t>
+  </si>
+  <si>
+    <t>Aegean</t>
+  </si>
+  <si>
+    <t>Athleta</t>
+  </si>
+  <si>
+    <t>Cameo pink</t>
+  </si>
+  <si>
+    <t>Kate Spade</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>Patriot blue</t>
+  </si>
+  <si>
+    <t>Tommy Hilfiger</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Wisteria</t>
+  </si>
+  <si>
+    <t>Banana Republic</t>
+  </si>
+  <si>
+    <t>Almond</t>
+  </si>
+  <si>
+    <t>Everlane</t>
+  </si>
+  <si>
+    <t>Cognac</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Harbor</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Mulberry</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Topshop</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>Mineral green</t>
+  </si>
+  <si>
+    <t>Dusty pink</t>
+  </si>
+  <si>
+    <t>Deep burgundy</t>
+  </si>
+  <si>
+    <t>Goldenrod</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>Electric blue</t>
+  </si>
+  <si>
+    <t>Peacock</t>
+  </si>
+  <si>
+    <t>Anthropologie</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Olive oil</t>
+  </si>
+  <si>
+    <t>Portobello</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Sagebrush</t>
+  </si>
+  <si>
+    <t>Levi's</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Henna</t>
+  </si>
+  <si>
+    <t>Burnt sienna</t>
+  </si>
+  <si>
+    <t>Nordstrom</t>
+  </si>
+  <si>
+    <t>Cadet</t>
+  </si>
+  <si>
+    <t>French blue</t>
+  </si>
+  <si>
+    <t>Seafoam</t>
+  </si>
+  <si>
+    <t>Lilypad</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Mink</t>
+  </si>
+  <si>
+    <t>Truffle</t>
+  </si>
+  <si>
+    <t>Eggshell</t>
+  </si>
+  <si>
+    <t>Marshmallow</t>
+  </si>
+  <si>
+    <t>Olive grove</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Pale lavender</t>
+  </si>
+  <si>
+    <t>Blue haze</t>
+  </si>
+  <si>
+    <t>Rustic brown</t>
+  </si>
+  <si>
+    <t>Mahogany</t>
+  </si>
+  <si>
+    <t>Black leather jacket</t>
+  </si>
+  <si>
+    <t>White t-shirt</t>
+  </si>
+  <si>
+    <t>Denim shorts</t>
+  </si>
+  <si>
+    <t>Striped tank top</t>
+  </si>
+  <si>
+    <t>Floral maxi dress</t>
+  </si>
+  <si>
+    <t>Straw hat</t>
+  </si>
+  <si>
+    <t>Plaid button-up</t>
+  </si>
+  <si>
+    <t>Khaki chinos</t>
+  </si>
+  <si>
+    <t>Velvet blazer</t>
+  </si>
+  <si>
+    <t>Satin blouse</t>
+  </si>
+  <si>
+    <t>Wide-leg trousers</t>
+  </si>
+  <si>
+    <t>Cropped sweater</t>
+  </si>
+  <si>
+    <t>Sheath dress</t>
+  </si>
+  <si>
+    <t>Ballet flats</t>
+  </si>
+  <si>
+    <t>Printed jumpsuit</t>
+  </si>
+  <si>
+    <t>Platform sandals</t>
+  </si>
+  <si>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t>Joggers</t>
+  </si>
+  <si>
+    <t>Cable-knit sweater</t>
+  </si>
+  <si>
+    <t>Corduroy pants</t>
+  </si>
+  <si>
+    <t>Tweed blazer</t>
+  </si>
+  <si>
+    <t>Silk scarf</t>
+  </si>
+  <si>
+    <t>Striped shirt dress</t>
+  </si>
+  <si>
+    <t>Espadrilles</t>
+  </si>
+  <si>
+    <t>Pleated skirt</t>
+  </si>
+  <si>
+    <t>Turtleneck sweater</t>
+  </si>
+  <si>
+    <t>Embroidered blouse</t>
+  </si>
+  <si>
+    <t>Skinny jeans</t>
+  </si>
+  <si>
+    <t>Leather leggings</t>
+  </si>
+  <si>
+    <t>Oversized sweater</t>
+  </si>
+  <si>
+    <t>Graphic t-shirt</t>
+  </si>
+  <si>
+    <t>High-waisted shorts</t>
+  </si>
+  <si>
+    <t>Slip dress</t>
+  </si>
+  <si>
+    <t>Denim jacket</t>
+  </si>
+  <si>
+    <t>Linen pants</t>
+  </si>
+  <si>
+    <t>Linen blazer</t>
+  </si>
+  <si>
+    <t>Maxi skirt</t>
+  </si>
+  <si>
+    <t>Off-the-shoulder top</t>
+  </si>
+  <si>
+    <t>Cargo pants</t>
+  </si>
+  <si>
+    <t>Combat boots</t>
+  </si>
+  <si>
+    <t>White button-up shirt</t>
+  </si>
+  <si>
+    <t>Black trousers</t>
+  </si>
+  <si>
+    <t>Leather biker shorts</t>
+  </si>
+  <si>
+    <t>Printed midi skirt</t>
+  </si>
+  <si>
+    <t>Striped linen shirt</t>
+  </si>
+  <si>
+    <t>Wide-leg jeans</t>
+  </si>
+  <si>
+    <t>Plaid skirt</t>
+  </si>
+  <si>
+    <t>Cashmere sweater</t>
+  </si>
+  <si>
+    <t>White sneakers</t>
+  </si>
+  <si>
+    <t>Satin slip skirt</t>
+  </si>
+  <si>
+    <t>Lace camisole</t>
+  </si>
+  <si>
+    <t>Cropped denim jacket</t>
+  </si>
+  <si>
+    <t>Floral blouse</t>
+  </si>
+  <si>
+    <t>Cotton midi dress</t>
+  </si>
+  <si>
+    <t>Woven mules</t>
+  </si>
+  <si>
+    <t>Corduroy jacket</t>
+  </si>
+  <si>
+    <t>Cargo shorts</t>
+  </si>
+  <si>
+    <t>Chambray shirt</t>
+  </si>
+  <si>
+    <t>Tapered trousers</t>
+  </si>
+  <si>
+    <t>Silk blouse</t>
+  </si>
+  <si>
+    <t>Striped blazer</t>
+  </si>
+  <si>
+    <t>Knit cardigan</t>
+  </si>
+  <si>
+    <t>Ribbed tank top</t>
+  </si>
+  <si>
+    <t>Leather trousers</t>
+  </si>
+  <si>
+    <t>Silk camisole</t>
+  </si>
+  <si>
+    <t>Wrap dress</t>
+  </si>
+  <si>
+    <t>Ankle boots</t>
+  </si>
+  <si>
+    <t>Puff-sleeve blouse</t>
+  </si>
+  <si>
+    <t>Denim cutoffs</t>
+  </si>
+  <si>
+    <t>Floral maxi skirt</t>
+  </si>
+  <si>
+    <t>Ruffled blouse</t>
+  </si>
+  <si>
+    <t>Levi's 501 jeans</t>
+  </si>
+  <si>
+    <t>Converse Chuck Taylor shoes</t>
+  </si>
+  <si>
+    <t>Tommy Hilfiger blazer</t>
+  </si>
+  <si>
+    <t>Ralph Lauren oxford shirt</t>
+  </si>
+  <si>
+    <t>Nike sweatpants</t>
+  </si>
+  <si>
+    <t>Adidas hoodie</t>
+  </si>
+  <si>
+    <t>Calvin Klein slip dress</t>
+  </si>
+  <si>
+    <t>Michael Kors sandals</t>
+  </si>
+  <si>
+    <t>Gucci blazer</t>
+  </si>
+  <si>
+    <t>Prada pumps</t>
+  </si>
+  <si>
+    <t>Chanel skirt</t>
+  </si>
+  <si>
+    <t>Louis Vuitton blouse</t>
+  </si>
+  <si>
+    <t>Burberry trench coat</t>
+  </si>
+  <si>
+    <t>Ferragamo loafers</t>
+  </si>
+  <si>
+    <t>Zara jumpsuit</t>
+  </si>
+  <si>
+    <t>H&amp;M denim jacket</t>
+  </si>
+  <si>
+    <t>Versace silk shirt</t>
+  </si>
+  <si>
+    <t>Dolce &amp; Gabbana trousers</t>
+  </si>
+  <si>
+    <t>YSL little black dress</t>
+  </si>
+  <si>
+    <t>Balenciaga ankle boots</t>
+  </si>
+  <si>
+    <t>Alexander McQueen blazer</t>
+  </si>
+  <si>
+    <t>Saint Laurent leather pants</t>
+  </si>
+  <si>
+    <t>Valentino maxi dress</t>
+  </si>
+  <si>
+    <t>Fendi sunglasses</t>
+  </si>
+  <si>
+    <t>Givenchy trench coat</t>
+  </si>
+  <si>
+    <t>Balmain ankle boots</t>
+  </si>
+  <si>
+    <t>Dior silk scarf</t>
+  </si>
+  <si>
+    <t>Celine crossbody bag</t>
+  </si>
+  <si>
+    <t>Bottega Veneta blazer</t>
+  </si>
+  <si>
+    <t>Armani trousers</t>
+  </si>
+  <si>
+    <t>Jimmy Choo heels</t>
+  </si>
+  <si>
+    <t>Prabal Gurung cocktail dress</t>
+  </si>
+  <si>
+    <t>Tory Burch tote bag</t>
+  </si>
+  <si>
+    <t>Coach leather jacket</t>
+  </si>
+  <si>
+    <t>Lululemon leggings</t>
+  </si>
+  <si>
+    <t>Athleta tank top</t>
+  </si>
+  <si>
+    <t>Abercrombie &amp; Fitch hoodie</t>
+  </si>
+  <si>
+    <t>Hollister shorts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -361,6 +1092,7 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -427,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -449,13 +1181,15 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -463,6 +1197,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -482,6 +1225,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -954,366 +1705,377 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D31" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1355,7 +2117,7 @@
       <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1515,6 +2277,2629 @@
       </c>
       <c r="B18" s="6" t="s">
         <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="27.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.13"/>
+    <col customWidth="1" min="2" max="2" width="29.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/Fashion Recommendation Table.xlsx
+++ b/src/Fashion Recommendation Table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="351">
   <si>
     <t>Input Dress</t>
   </si>
@@ -4355,6 +4355,2134 @@
         <v>197</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D217" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D231" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D237" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D239" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D240" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D242" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D245" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D248" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D255" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D267" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D268" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D273" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D275" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D277" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D278" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D279" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D281" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D282" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D283" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D285" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D286" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D287" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D288" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D289" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D291" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D292" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D293" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D294" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D297" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D299" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4902,6 +7030,526 @@
         <v>98</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
